--- a/산출물/3_구현및시험단계.xlsx
+++ b/산출물/3_구현및시험단계.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" codeName="현재_통합_문서"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD54FB5-6D08-4973-B0EA-731B18831778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66AFBF11-7721-4F4E-A565-471516860CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="48">
   <si>
     <t>프로그램명</t>
   </si>
@@ -56,22 +56,6 @@
   <si>
     <t>구현 단계 체크리스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1일차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2일차</t>
-  </si>
-  <si>
-    <t>3일차</t>
-  </si>
-  <si>
-    <t>4일차</t>
-  </si>
-  <si>
-    <t>5일차</t>
   </si>
   <si>
     <t>비즈니스
@@ -170,6 +154,55 @@
   </si>
   <si>
     <t>리뷰전체조회</t>
+  </si>
+  <si>
+    <t>MemberFollowingRepository.java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MemberController.java
+MemberAppService.java
+MemberRequest.java
+MemberResponse.java
+MemberRepository.java
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MovieController.java
+MovieAppService.java
+MovieRequest.java
+MovieResponse.java
+MovieRepository.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MovieReviewController.java
+MovieReviewAppService.java
+MovieReviewRequest.java
+MovieReviewResponse.java
+MovieReviewRepository.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1일차(금)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2일차(월)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3일차(화)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4일차(수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5일차(목)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -404,14 +437,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -448,6 +478,33 @@
     <xf numFmtId="176" fontId="7" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -485,9 +542,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -773,538 +827,805 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.09765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.59765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.3984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="7" style="3" customWidth="1"/>
-    <col min="10" max="10" width="28.09765625" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.796875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.19921875" style="3" customWidth="1"/>
+    <col min="5" max="9" width="7" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28.09765625" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.4">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="2" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-    </row>
-    <row r="3" spans="1:10" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="14">
-        <f>AVERAGE(E8:E20)</f>
-        <v>3.8461538461538464E-2</v>
-      </c>
-      <c r="F3" s="14">
-        <f t="shared" ref="F3:I3" si="0">AVERAGE(F8:F20)</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H3" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I3" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J3" s="7"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="13">
+        <f>AVERAGE(E8:E31)</f>
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="13">
+        <f>AVERAGE(F8:F31)</f>
+        <v>0.69999999999999973</v>
+      </c>
+      <c r="G3" s="13">
+        <f>AVERAGE(G8:G31)</f>
+        <v>0.8999999999999998</v>
+      </c>
+      <c r="H3" s="13">
+        <f>AVERAGE(H8:H31)</f>
+        <v>1</v>
+      </c>
+      <c r="I3" s="13">
+        <f>AVERAGE(I8:I31)</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="5" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="32"/>
+    </row>
+    <row r="8" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="H8" s="8">
+        <v>1</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="H9" s="8">
+        <v>1</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="18"/>
+      <c r="E10" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="H10" s="8">
+        <v>1</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="11"/>
+      <c r="B11" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="18"/>
+      <c r="E11" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="H11" s="8">
+        <v>1</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="11"/>
+      <c r="B12" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="H12" s="8">
+        <v>1</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="11"/>
+      <c r="B13" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="19"/>
+      <c r="E13" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="H13" s="8">
+        <v>1</v>
+      </c>
+      <c r="I13" s="8">
+        <v>0</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="11"/>
+      <c r="B14" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="H14" s="8">
+        <v>1</v>
+      </c>
+      <c r="I14" s="8">
+        <v>0</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F15" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="H15" s="8">
+        <v>1</v>
+      </c>
+      <c r="I15" s="8">
+        <v>0</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="18"/>
+      <c r="E16" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F16" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="G16" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="H16" s="8">
+        <v>1</v>
+      </c>
+      <c r="I16" s="8">
+        <v>0</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="11"/>
+      <c r="B17" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="18"/>
+      <c r="E17" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F17" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="G17" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="H17" s="8">
+        <v>1</v>
+      </c>
+      <c r="I17" s="8">
+        <v>0</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="11"/>
+      <c r="B18" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="18"/>
+      <c r="E18" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F18" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="H18" s="8">
+        <v>1</v>
+      </c>
+      <c r="I18" s="8">
+        <v>0</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="11"/>
+      <c r="B19" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="18"/>
+      <c r="E19" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F19" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="G19" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="H19" s="8">
+        <v>1</v>
+      </c>
+      <c r="I19" s="8">
+        <v>0</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="11"/>
+      <c r="B20" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="18"/>
+      <c r="E20" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F20" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="G20" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="H20" s="8">
+        <v>1</v>
+      </c>
+      <c r="I20" s="8">
+        <v>0</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A21" s="15"/>
+      <c r="B21" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="18"/>
+      <c r="E21" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F21" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="G21" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="H21" s="8">
+        <v>1</v>
+      </c>
+      <c r="I21" s="8">
+        <v>0</v>
+      </c>
+      <c r="J21" s="15"/>
+    </row>
+    <row r="22" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A22" s="15"/>
+      <c r="B22" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="18"/>
+      <c r="E22" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F22" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="G22" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="H22" s="8">
+        <v>1</v>
+      </c>
+      <c r="I22" s="8">
+        <v>0</v>
+      </c>
+      <c r="J22" s="15"/>
+    </row>
+    <row r="23" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A23" s="15"/>
+      <c r="B23" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="18"/>
+      <c r="E23" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F23" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="G23" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="H23" s="8">
+        <v>1</v>
+      </c>
+      <c r="I23" s="8">
+        <v>0</v>
+      </c>
+      <c r="J23" s="15"/>
+    </row>
+    <row r="24" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A24" s="15"/>
+      <c r="B24" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="18"/>
+      <c r="E24" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F24" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="G24" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="H24" s="8">
+        <v>1</v>
+      </c>
+      <c r="I24" s="8">
+        <v>0</v>
+      </c>
+      <c r="J24" s="15"/>
+    </row>
+    <row r="25" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A25" s="15"/>
+      <c r="B25" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="18"/>
+      <c r="E25" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F25" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="G25" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="H25" s="8">
+        <v>1</v>
+      </c>
+      <c r="I25" s="8">
+        <v>0</v>
+      </c>
+      <c r="J25" s="15"/>
+    </row>
+    <row r="26" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A26" s="15"/>
+      <c r="B26" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="19"/>
+      <c r="E26" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F26" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="G26" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="H26" s="8">
+        <v>1</v>
+      </c>
+      <c r="I26" s="8">
+        <v>0</v>
+      </c>
+      <c r="J26" s="15"/>
+    </row>
+    <row r="27" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="24"/>
-    </row>
-    <row r="8" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="F8" s="9">
-        <v>0</v>
-      </c>
-      <c r="G8" s="9">
-        <v>0</v>
-      </c>
-      <c r="H8" s="9">
-        <v>0</v>
-      </c>
-      <c r="I8" s="9">
-        <v>0</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="9">
-        <v>0</v>
-      </c>
-      <c r="F9" s="9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="9">
-        <v>0</v>
-      </c>
-      <c r="H9" s="9">
-        <v>0</v>
-      </c>
-      <c r="I9" s="9">
-        <v>0</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="9">
-        <v>0</v>
-      </c>
-      <c r="F10" s="9">
-        <v>0</v>
-      </c>
-      <c r="G10" s="9">
-        <v>0</v>
-      </c>
-      <c r="H10" s="9">
-        <v>0</v>
-      </c>
-      <c r="I10" s="9">
-        <v>0</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="12"/>
-      <c r="B11" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="9">
-        <v>0</v>
-      </c>
-      <c r="F11" s="9">
-        <v>0</v>
-      </c>
-      <c r="G11" s="9">
-        <v>0</v>
-      </c>
-      <c r="H11" s="9">
-        <v>0</v>
-      </c>
-      <c r="I11" s="9">
-        <v>0</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="12"/>
-      <c r="B12" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="9">
-        <v>0</v>
-      </c>
-      <c r="F12" s="9">
-        <v>0</v>
-      </c>
-      <c r="G12" s="9">
-        <v>0</v>
-      </c>
-      <c r="H12" s="9">
-        <v>0</v>
-      </c>
-      <c r="I12" s="9">
-        <v>0</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="12"/>
-      <c r="B13" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="9">
-        <v>0</v>
-      </c>
-      <c r="F13" s="9">
-        <v>0</v>
-      </c>
-      <c r="G13" s="9">
-        <v>0</v>
-      </c>
-      <c r="H13" s="9">
-        <v>0</v>
-      </c>
-      <c r="I13" s="9">
-        <v>0</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="12"/>
-      <c r="B14" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="9">
-        <v>0</v>
-      </c>
-      <c r="F14" s="9">
-        <v>0</v>
-      </c>
-      <c r="G14" s="9">
-        <v>0</v>
-      </c>
-      <c r="H14" s="9">
-        <v>0</v>
-      </c>
-      <c r="I14" s="9">
-        <v>0</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="9">
-        <v>0</v>
-      </c>
-      <c r="F15" s="9">
-        <v>0</v>
-      </c>
-      <c r="G15" s="9">
-        <v>0</v>
-      </c>
-      <c r="H15" s="9">
-        <v>0</v>
-      </c>
-      <c r="I15" s="9">
-        <v>0</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="9">
-        <v>0</v>
-      </c>
-      <c r="F16" s="9">
-        <v>0</v>
-      </c>
-      <c r="G16" s="9">
-        <v>0</v>
-      </c>
-      <c r="H16" s="9">
-        <v>0</v>
-      </c>
-      <c r="I16" s="9">
-        <v>0</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="12"/>
-      <c r="B17" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="9">
-        <v>0</v>
-      </c>
-      <c r="F17" s="9">
-        <v>0</v>
-      </c>
-      <c r="G17" s="9">
-        <v>0</v>
-      </c>
-      <c r="H17" s="9">
-        <v>0</v>
-      </c>
-      <c r="I17" s="9">
-        <v>0</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="12"/>
-      <c r="B18" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="9">
-        <v>0</v>
-      </c>
-      <c r="F18" s="9">
-        <v>0</v>
-      </c>
-      <c r="G18" s="9">
-        <v>0</v>
-      </c>
-      <c r="H18" s="9">
-        <v>0</v>
-      </c>
-      <c r="I18" s="9">
-        <v>0</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="12"/>
-      <c r="B19" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="9">
-        <v>0</v>
-      </c>
-      <c r="F19" s="9">
-        <v>0</v>
-      </c>
-      <c r="G19" s="9">
-        <v>0</v>
-      </c>
-      <c r="H19" s="9">
-        <v>0</v>
-      </c>
-      <c r="I19" s="9">
-        <v>0</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="12"/>
-      <c r="B20" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="9">
-        <v>0</v>
-      </c>
-      <c r="F20" s="9">
-        <v>0</v>
-      </c>
-      <c r="G20" s="9">
-        <v>0</v>
-      </c>
-      <c r="H20" s="9">
-        <v>0</v>
-      </c>
-      <c r="I20" s="9">
-        <v>0</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B21" s="28" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B22" s="28" t="s">
+      <c r="B27" s="14" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B23" s="28" t="s">
+      <c r="C27" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F27" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="G27" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="H27" s="8">
+        <v>1</v>
+      </c>
+      <c r="I27" s="8">
+        <v>0</v>
+      </c>
+      <c r="J27" s="15"/>
+    </row>
+    <row r="28" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A28" s="15"/>
+      <c r="B28" s="14" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="B24" s="28" t="s">
+      <c r="C28" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="21"/>
+      <c r="E28" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F28" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="G28" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="H28" s="8">
+        <v>1</v>
+      </c>
+      <c r="I28" s="8">
+        <v>0</v>
+      </c>
+      <c r="J28" s="15"/>
+    </row>
+    <row r="29" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A29" s="15"/>
+      <c r="B29" s="14" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="B25" s="28" t="s">
+      <c r="C29" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="21"/>
+      <c r="E29" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F29" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="G29" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="H29" s="8">
+        <v>1</v>
+      </c>
+      <c r="I29" s="8">
+        <v>0</v>
+      </c>
+      <c r="J29" s="15"/>
+    </row>
+    <row r="30" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A30" s="15"/>
+      <c r="B30" s="14" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B26" s="28" t="s">
+      <c r="C30" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="21"/>
+      <c r="E30" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F30" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="G30" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="H30" s="8">
+        <v>1</v>
+      </c>
+      <c r="I30" s="8">
+        <v>0</v>
+      </c>
+      <c r="J30" s="15"/>
+    </row>
+    <row r="31" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A31" s="15"/>
+      <c r="B31" s="14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A27" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" s="28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="B28" s="28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="B29" s="28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="B30" s="28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="B31" s="28" t="s">
-        <v>43</v>
-      </c>
+      <c r="C31" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="22"/>
+      <c r="E31" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F31" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="G31" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="H31" s="8">
+        <v>1</v>
+      </c>
+      <c r="I31" s="8">
+        <v>0</v>
+      </c>
+      <c r="J31" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="13">
+    <mergeCell ref="D8:D13"/>
+    <mergeCell ref="D15:D26"/>
+    <mergeCell ref="D27:D31"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="A3:B3"/>
